--- a/Assessments/Unit4/4.1.2/advertising_budget.xlsx
+++ b/Assessments/Unit4/4.1.2/advertising_budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004326B9-5EC3-4AF7-AE3E-71058AD87136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{60BE70BC-3E9C-4863-AF7D-4207906D40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F9CF8FE9-A742-486C-83AD-2B7C5BE7C78A}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Marketing_Budget ($1000s) (xxx)</t>
+    <t>Sales_Revenue</t>
   </si>
   <si>
-    <t>Sales_Revenue ($1000s) (yyy)</t>
+    <t>Marketing_Budget</t>
   </si>
 </sst>
 </file>
@@ -433,20 +433,20 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -730,6 +730,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -993,30 +1016,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241255F9-9CD6-41BF-BEE5-1EB682946695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C779ED-AA28-4D24-93C1-C5C9F2C5AD3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DA82F0-6AB1-4180-A3CC-71AA229D44A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1035,27 +1060,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C779ED-AA28-4D24-93C1-C5C9F2C5AD3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241255F9-9CD6-41BF-BEE5-1EB682946695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>